--- a/FileSettingEnviromentProjectJAVA.xlsx
+++ b/FileSettingEnviromentProjectJAVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tas-Co\Desktop\TeachBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Co Co\Desktop\Clonegit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B491C2-0269-416E-BF48-5E3C038E218C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2B085E-0D07-4BB3-A4C7-8AAA664C5AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13506D8E-4361-4180-9DF2-20F385AAC443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13506D8E-4361-4180-9DF2-20F385AAC443}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,447 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p trình : Spring Tool Suite, Version: 3.8.4.RELEASE</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tomcat server 8.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xampp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l</t>
+      </rPr>
+      <t>c 1: Kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ng Spring Tool Suite và Import Project </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>c 2: Add Tomcat server 8.5</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c 3: M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> file demo-servlet.xml ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nh thông s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i database nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> hình</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3306 : Port mysql </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>company_db : Tên database</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c 4: Kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng Apache và MySQL trên Xampp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>c 5: Truy c</t>
     </r>
     <r>
       <rPr>
@@ -76,24 +511,144 @@
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p trình : Spring Tool Suite, Version: 3.8.4.RELEASE</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tomcat server 8.5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xampp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
+      </rPr>
+      <t>p vào phpMyadmin đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> import Database theo  link http://localhost/phpmyadmin/</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Start server tomcat 8.5 lên sau đó th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y Project</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nh</t>
     </r>
     <r>
       <rPr>
@@ -111,539 +666,32 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c 1: Kh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ở</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>i đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ộ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ng Spring Tool Suite và Import Project </t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>c 2: Add Tomcat server 8.5</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c 3: M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ở</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> file demo-servlet.xml ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ỉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nh thông s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ố</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ế</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>t n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ố</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>i database nh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> hình</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">3306 : Port mysql </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>company_db : Tên database</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c 4: Kh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ở</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>i đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ộ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ng Apache và MySQL trên Xampp</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>c 5: Truy c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>p vào phpMyadmin đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> import Database theo  link http://localhost/phpmyadmin/</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Start server tomcat 8.5 lên sau đó th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ự</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c hi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y Project</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ế</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t qu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ả</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+    <r>
+      <t>API th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -654,54 +702,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hình</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>API th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ứ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
@@ -712,7 +712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -756,7 +756,7 @@
   </si>
   <si>
     <r>
-      <t>Cài đ</t>
+      <t>Ch</t>
     </r>
     <r>
       <rPr>
@@ -767,7 +767,329 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y project </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Ngôn ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p trình: JAVA, Framework : Spring MVC</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Database: MySQL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o phòng ban khi click vào Link T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o Team khi click vào link T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o employee khi click vào link T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Cài đ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
       <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t môi tr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
     </r>
     <r>
       <rPr>
@@ -777,20 +1099,20 @@
         <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t môi tr</t>
+      </rPr>
+      <t>ng</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ư</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ch</t>
     </r>
     <r>
       <rPr>
@@ -801,343 +1123,20 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>ờ</t>
+      <t>ạ</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ng</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ch</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y Project</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">y project </t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Ngôn ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ữ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p trình: JAVA, Framework : Spring MVC</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Database: MySQL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o phòng ban khi click vào Link T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o Team khi click vào link T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o employee khi click vào link T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <phoneticPr fontId="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y Project abc</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1148,7 +1147,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1162,7 +1161,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1191,7 +1190,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1252,7 +1251,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1496,7 +1495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1546,7 +1545,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1596,7 +1595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1673,7 +1672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1971,16 +1970,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC90EBE-9778-45C5-B3C3-107F29442587}">
   <dimension ref="B2:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="24">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2000,25 +2001,25 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" ht="18.75">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" ht="18.75">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" ht="18.75">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -2033,19 +2034,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" ht="18.75">
       <c r="B31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" ht="18.75">
       <c r="B32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="24">
+    <row r="34" spans="2:2" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -2053,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" ht="16.5">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>13</v>
       </c>
       <c r="O59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -2076,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="O81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="2:15">
@@ -2084,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="O103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
